--- a/Openpyxl 10.12.24.xlsx
+++ b/Openpyxl 10.12.24.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Basics" sheetId="1" r:id="rId1"/>
+    <sheet name="Work" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="201">
   <si>
     <t>Изваждане на количества от склад</t>
   </si>
@@ -173,13 +174,457 @@
   </si>
   <si>
     <t>Project tool window</t>
+  </si>
+  <si>
+    <t>Merge multiple sheets into one</t>
+  </si>
+  <si>
+    <t>from openpyxl import load_workbook, Workbook</t>
+  </si>
+  <si>
+    <t>def merge_all_sheets(source_file, output_file):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wb_source = load_workbook(source_file)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wb_target = Workbook()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws_target = wb_target.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws_target.title = "All_Products"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    counter_sheets = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for sheet_name in wb_source.sheetnames:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws_source  = wb_source[sheet_name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        counter_sheets += 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print(f"Merging sheet: {sheet_name}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for i, row in enumerate(ws_source.iter_rows(values_only=True), start=1):  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            # Optionally skip header rows if you want only one header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if i &lt; 3:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ws_target.append(row)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wb_target.save(output_file)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(f"All {counter_sheets} sheets merged into {output_file}")</t>
+  </si>
+  <si>
+    <t>merge_all_sheets("Sklad 11.07.2025.xlsx", "merged_sklad 11.07.xlsx")</t>
+  </si>
+  <si>
+    <t>Find the diff between two excel files</t>
+  </si>
+  <si>
+    <t># finds the diff but shows if there is problem in comparing 2 cells if values[0] &gt; values[1]</t>
+  </si>
+  <si>
+    <t># if some of the 2 quantity cells is None or empty string it prints -----problem</t>
+  </si>
+  <si>
+    <t>def get_changed_products_with_description(file1, file2):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wb1 = load_workbook(file1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wb2 = load_workbook(file2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    common_sheets = set(wb1.sheetnames) &amp; set(wb2.sheetnames)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    all_changes = {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # print(wb1.sheetnames)  # ['?????? ? ??????????', '????????? ?????', 'ABB', 'ABL-SURSUM',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for sheet in common_sheets:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws1 = wb1[sheet]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws2 = wb2[sheet]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        changed = {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for row in ws1.iter_rows(min_row=3):  # Skip header rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            product_code = row[0].value  # Column A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            description = row[1].value   # Column B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            cell1 = row[4]               # Column E  &lt;Cell 'FANTON'.E11&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if not product_code or not description:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            cell2 = ws2[cell1.coordinate]  # cell2 = ws2["E11"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if cell1.value != cell2.value:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                key = f"{product_code}  {description}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                changed[key] = [cell1.value, cell2.value]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if changed:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            all_changes[sheet] = changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return all_changes</t>
+  </si>
+  <si>
+    <t># Example usage: old file(1.1.2025), new file(1.2.2025)</t>
+  </si>
+  <si>
+    <t># changes = {'RADPOL': {'WRJCC6400320010030C1  ?????????? RADPOL RCH1 6,4/3,2 1m ?????': [1167, 1067]}, 'HEIDEMANN': {'70027  ?????? Heidemann Classic 8V 82db': [105, 102]}...},</t>
+  </si>
+  <si>
+    <t>changes = get_changed_products_with_description("Sklad 08.07.2025.xlsx", "Sklad 09.07.2025.xlsx")</t>
+  </si>
+  <si>
+    <t>for sheet, changed_products in changes.items():  # 'RADPOL', {'WRJCC6400320010030C1  ?????????? RADPOL RCH1 6,4/3,2 1m ?????': [1167, 1067]},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(f"\nChanges in sheet '{sheet}':")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for key, values in changed_products.items():  # 'WRJCC6400320010030C1  ?????????? RADPOL RCH1 6,4/3,2 1m ?????', [1167, 1067]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        try:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if values[0] &gt; values[1]:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                print(f"{key}: {values}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                print(f"{key}: {values}  +")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        except TypeError:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            print(f"{key}: {values}------------problem")</t>
+  </si>
+  <si>
+    <t>Add qunatity in the sklad.excel file</t>
+  </si>
+  <si>
+    <t>import openpyxl</t>
+  </si>
+  <si>
+    <t># Load files</t>
+  </si>
+  <si>
+    <t>inventory_wb = openpyxl.load_workbook("sklad 23.05.2025.xlsx")</t>
+  </si>
+  <si>
+    <t>corrections_wb = openpyxl.load_workbook("correct.xlsx")</t>
+  </si>
+  <si>
+    <t>corrections_sheet = corrections_wb.active</t>
+  </si>
+  <si>
+    <t># Prepare corrections list</t>
+  </si>
+  <si>
+    <t>corrections = []  # [('2CDS251001R0104', 2), ('2CDS251001R0204', 2), ('V20R', 3)]</t>
+  </si>
+  <si>
+    <t>for row in corrections_sheet.iter_rows(min_row=2, values_only=True):  # skip header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    article_number = str(row[0]).strip()  # 2CDS251001R0104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    quantity_change = row[1]  # 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if article_number and quantity_change is not None:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        corrections.append((article_number, quantity_change))</t>
+  </si>
+  <si>
+    <t># Find matches and prepare preview</t>
+  </si>
+  <si>
+    <t>matches = []  # [{'sheet': 'ABB', 'article': '2CDS251001R0104', 'current_qty': 9.0, 'change': 2, 'new_qty': 11.0, 'cell': &lt;Cell 'ABB'.E220&gt;},...]</t>
+  </si>
+  <si>
+    <t>for article_number, quantity_change in corrections:  # '2CDS251001R0104', 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for sheet in inventory_wb.worksheets:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for row in sheet.iter_rows(min_row=2):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            cell_article = str(row[0].value).strip()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if cell_article == article_number:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                qty_cell = row[4]  # This is a Cell object from inventory_wb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                try:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    current_qty = float(qty_cell.value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    new_qty = current_qty + quantity_change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    matches.append({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "sheet": sheet.title,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "article": article_number,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "current_qty": current_qty,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "change": quantity_change,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "new_qty": new_qty,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "cell": qty_cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                except:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    print(f"[ERROR] Invalid quantity for article {article_number} in sheet '{sheet.title}'")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                break  # Found article, stop scanning this sheet, dont go to the next row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        else:  # all rows are checked and artical is not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            continue  # go to the next sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        break  # Found article in one sheet, stop scanning other sheets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else:  # all sheets are checked and artical is not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print(f"[WARNING] Article {article_number} not found in any sheet.")</t>
+  </si>
+  <si>
+    <t># Display proposed corrections</t>
+  </si>
+  <si>
+    <t>if matches:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print("\n--- Proposed Corrections ---")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for match in matches:  # {'sheet': 'ABB', 'article': '2CDS251001R0104', 'current_qty': 9.0, 'change': 2, 'new_qty': 11.0, 'cell': &lt;Cell 'ABB'.E220&gt;}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print(f"Sheet: {match['sheet']}, Article: {match['article']}, "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              f"Current Qty: {match['current_qty']}, "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              f"Change: {match['change']} -&gt; New Qty: {match['new_qty']}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    confirm = input("\nDo you want to apply these corrections? Type 'yes' to confirm: ").strip().lower()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if confirm == "yes":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for match in matches:  # {'sheet': 'ABB', 'article': '2CDS251001R0104', 'current_qty': 9.0, 'change': 2, 'new_qty': 11.0, 'cell': &lt;Cell 'ABB'.E220&gt;}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            match['cell'].value = match['new_qty']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        inventory_wb.save("sklad 30.05.2025 updated.xlsx")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print("? Corrections applied and file saved as 'sklad 30.05.2025 updated.xlsx'")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print("? Operation cancelled. No changes were made.")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print("?? No valid corrections found.")</t>
+  </si>
+  <si>
+    <t>Substract quantity in sklad.xlsx file</t>
+  </si>
+  <si>
+    <t>inventory_wb = openpyxl.load_workbook("sklad 20.05.2025.xlsx")</t>
+  </si>
+  <si>
+    <t>corrections = []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    article_number = str(row[0]).strip()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    quantity_change = row[1]</t>
+  </si>
+  <si>
+    <t>matches = []</t>
+  </si>
+  <si>
+    <t>for article_number, quantity_change in corrections:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                qty_cell = row[4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    new_qty = current_qty - quantity_change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for match in matches:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for match in matches:</t>
+  </si>
+  <si>
+    <t>#  the scripts is in function called vlookup</t>
+  </si>
+  <si>
+    <t>#  The script is working like vlookup in excel</t>
+  </si>
+  <si>
+    <t>#  Just type the searched artical in 'searched_artical' and file name in 'file'</t>
+  </si>
+  <si>
+    <t>def vlookup(file, article):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wb = load_workbook(file)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for sheet_name in wb.sheetnames:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws = wb[sheet_name]  # Get the actual worksheet object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for row in ws.iter_rows(min_row=2):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if article == cell_article:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                qty_cell = row[4].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                print(f"\n---------- {qty_cell}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                break  # the artical is found, stop going to next row, stop this sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        else:  # all rows in this sheet are checked and artical is not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        break  # the artical is found so stop iterating over sheets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print(f"[WARNING] Article {searched_artical} not found in any sheet.")</t>
+  </si>
+  <si>
+    <t>file = 'Sklad 17.06.2025.xlsx'</t>
+  </si>
+  <si>
+    <t>searched_artical = '2CDS251001R0204'</t>
+  </si>
+  <si>
+    <t>vlookup(file, searched_artical)</t>
+  </si>
+  <si>
+    <t>Vlookup using openpyxl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +645,15 @@
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,10 +677,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,7 +742,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,10 +774,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,7 +808,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,283 +983,1291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" t="s">
         <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:B249"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="B145" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="B146" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="B147" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="B148" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="B149" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="B150" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="B151" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="B154" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="B156" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="B157" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="B158" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="B159" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="B209" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="B210" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="B211" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="B212" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="B213" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="B214" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="B215" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="B218" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="B219" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="B220" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="B222" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="B224" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Openpyxl 10.12.24.xlsx
+++ b/Openpyxl 10.12.24.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="218">
   <si>
     <t>Изваждане на количества от склад</t>
   </si>
@@ -182,15 +182,6 @@
     <t>from openpyxl import load_workbook, Workbook</t>
   </si>
   <si>
-    <t>def merge_all_sheets(source_file, output_file):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    wb_source = load_workbook(source_file)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    wb_target = Workbook()</t>
-  </si>
-  <si>
     <t xml:space="preserve">    ws_target = wb_target.active</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
     <t xml:space="preserve">    counter_sheets = 0</t>
   </si>
   <si>
-    <t xml:space="preserve">    for sheet_name in wb_source.sheetnames:</t>
-  </si>
-  <si>
     <t xml:space="preserve">        ws_source  = wb_source[sheet_name]</t>
   </si>
   <si>
@@ -236,9 +224,6 @@
     <t xml:space="preserve">    print(f"All {counter_sheets} sheets merged into {output_file}")</t>
   </si>
   <si>
-    <t>merge_all_sheets("Sklad 11.07.2025.xlsx", "merged_sklad 11.07.xlsx")</t>
-  </si>
-  <si>
     <t>Find the diff between two excel files</t>
   </si>
   <si>
@@ -618,18 +603,266 @@
   </si>
   <si>
     <t>Vlookup using openpyxl</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>merge_all_sheets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(source_file, output_file):</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">отваряне на съществуващ excel file "Sklad 11.07.2025.xlsx"  </t>
+  </si>
+  <si>
+    <t>създаване на нов excel file с име "merged_sklad 11.07.xlsx"</t>
+  </si>
+  <si>
+    <t>задаване на активна страница(sheet)</t>
+  </si>
+  <si>
+    <t>задаване ime на активнаta страница(sheet)</t>
+  </si>
+  <si>
+    <t>броя на страници</t>
+  </si>
+  <si>
+    <t>Итерираме през страниците на източника</t>
+  </si>
+  <si>
+    <t>добави 1 към брояча на страници</t>
+  </si>
+  <si>
+    <t>принтирай името на текущата страница</t>
+  </si>
+  <si>
+    <t>Итерирай през редовете на активната страница</t>
+  </si>
+  <si>
+    <t>пропусни първите 2 реда</t>
+  </si>
+  <si>
+    <t>добави към output file active sheet - tuple, който е реда(values_only)</t>
+  </si>
+  <si>
+    <t>запази output file</t>
+  </si>
+  <si>
+    <t>принтира  колко броя страници са обработени</t>
+  </si>
+  <si>
+    <t>старт на програмата</t>
+  </si>
+  <si>
+    <t>print(row) -&gt; ('9215400007', 'Щепсел бакелит Найден Киров 16А бял', 'бр', 126, None, None)</t>
+  </si>
+  <si>
+    <t>print(type(row)) -&gt;  &lt;class 'tuple'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wb_source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>load_workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(source_file)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wb_target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Workbook()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    for sheet_name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wb_source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.sheetnames:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>merge_all_sheets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sklad 11.07.2025.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>merged_sklad 11.07.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")</t>
+    </r>
+  </si>
+  <si>
+    <t>активираме текуща страница sheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -656,6 +889,37 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA47A20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -677,17 +941,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA47A20"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1269,130 +1539,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B249"/>
+  <dimension ref="A3:J249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
+      <c r="J10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
+      <c r="J11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
+      <c r="J12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
+      <c r="J15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
+      <c r="J16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
+      <c r="J17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+      <c r="J25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>73</v>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1402,162 +1725,162 @@
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="B43" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="B44" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="B46" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1567,297 +1890,297 @@
     </row>
     <row r="82" spans="1:2">
       <c r="B82" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="B84" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="B88" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="B90" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="B91" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="B92" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="B93" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="B95" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="B145" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="B146" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="B147" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="B148" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="B149" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1867,282 +2190,282 @@
     </row>
     <row r="151" spans="1:2">
       <c r="B151" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="B154" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="B156" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="B157" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="B158" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="B159" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="B209" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="B210" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="B211" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="B212" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="B213" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2152,27 +2475,27 @@
     </row>
     <row r="215" spans="1:2">
       <c r="B215" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="B218" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="B219" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="B220" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2182,95 +2505,96 @@
     </row>
     <row r="224" spans="1:2">
       <c r="B224" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Openpyxl 10.12.24.xlsx
+++ b/Openpyxl 10.12.24.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="340">
   <si>
     <t>Изваждане на количества от склад</t>
   </si>
@@ -6852,13 +6852,380 @@
       </rPr>
       <t xml:space="preserve"> are checked and artical is not found</t>
     </r>
+  </si>
+  <si>
+    <t>Append in excel</t>
+  </si>
+  <si>
+    <t>from openpyxl import Workbook</t>
+  </si>
+  <si>
+    <t># Create new Excel file</t>
+  </si>
+  <si>
+    <t># Write cell values</t>
+  </si>
+  <si>
+    <t># Save Excel file</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Workbook()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.active</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"] = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"] = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>append</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(["Alice", 24])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>append</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(["Bob", 27])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>people.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")</t>
+    </r>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Как може да кажем append from C13 for example</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7114,6 +7481,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF179A77"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7230,7 +7612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7277,6 +7659,8 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7286,8 +7670,8 @@
   <colors>
     <mruColors>
       <color rgb="FFA47A20"/>
+      <color rgb="FF179A77"/>
       <color rgb="FFA626A4"/>
-      <color rgb="FF179A77"/>
       <color rgb="FFDA7BB9"/>
     </mruColors>
   </colors>
@@ -7303,6 +7687,105 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209006</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>509451</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2037806" y="14752320"/>
+          <a:ext cx="910045" cy="148046"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>478971</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>113211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2002971" y="14935200"/>
+          <a:ext cx="914400" cy="174171"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8196,7 +8679,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8228,9 +8711,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8262,6 +8746,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8437,319 +8922,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>326</v>
+      </c>
+      <c r="F79" t="s">
+        <v>246</v>
+      </c>
+      <c r="G79" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>331</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G80" s="40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>330</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="G81" s="40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>332</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="G82" s="40">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F84" s="41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I245" sqref="I244:I245"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>238</v>
       </c>
@@ -8757,7 +9341,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>224</v>
       </c>
@@ -8765,7 +9349,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>227</v>
       </c>
@@ -8773,7 +9357,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>226</v>
       </c>
@@ -8781,7 +9365,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>241</v>
       </c>
@@ -8789,7 +9373,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>229</v>
       </c>
@@ -8797,7 +9381,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>228</v>
       </c>
@@ -8805,7 +9389,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>54</v>
       </c>
@@ -8813,7 +9397,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>235</v>
       </c>
@@ -8821,7 +9405,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>236</v>
       </c>
@@ -8829,12 +9413,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>230</v>
       </c>
@@ -8842,7 +9426,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>190</v>
       </c>
@@ -8850,7 +9434,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>237</v>
       </c>
@@ -8864,7 +9448,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -8872,7 +9456,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="25" t="s">
         <v>239</v>
       </c>
@@ -8898,7 +9482,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>240</v>
       </c>
@@ -8924,7 +9508,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>149</v>
       </c>
@@ -8932,12 +9516,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>58</v>
       </c>
@@ -8952,7 +9536,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>59</v>
       </c>
@@ -8967,7 +9551,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="12"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -8984,7 +9568,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>234</v>
       </c>
@@ -9002,7 +9586,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -9018,7 +9602,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>160</v>
       </c>
@@ -9036,7 +9620,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>231</v>
       </c>
@@ -9052,7 +9636,7 @@
       <c r="L40" s="12"/>
       <c r="N40" s="25"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>232</v>
       </c>
@@ -9069,7 +9653,7 @@
       <c r="K41" s="11"/>
       <c r="L41" s="12"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -9082,7 +9666,7 @@
       <c r="K42" s="11"/>
       <c r="L42" s="12"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>164</v>
       </c>
@@ -9098,7 +9682,7 @@
       <c r="K43" s="11"/>
       <c r="L43" s="12"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>161</v>
       </c>
@@ -9127,7 +9711,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -9154,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>172</v>
       </c>
@@ -9167,7 +9751,7 @@
       <c r="K46" s="11"/>
       <c r="L46" s="12"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>173</v>
       </c>
@@ -9183,7 +9767,7 @@
       <c r="K47" s="11"/>
       <c r="L47" s="12"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>174</v>
       </c>
@@ -9198,7 +9782,7 @@
       <c r="K48" s="11"/>
       <c r="L48" s="12"/>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>162</v>
       </c>
@@ -9213,7 +9797,7 @@
       <c r="K49" s="28"/>
       <c r="L49" s="12"/>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -9228,7 +9812,7 @@
       <c r="K50" s="31"/>
       <c r="L50" s="31"/>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>233</v>
       </c>
@@ -9242,7 +9826,7 @@
       <c r="K51" s="11"/>
       <c r="L51" s="12"/>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>217</v>
       </c>
@@ -9259,7 +9843,7 @@
       <c r="K52" s="11"/>
       <c r="L52" s="12"/>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>218</v>
       </c>
@@ -9281,7 +9865,7 @@
       <c r="O53" s="8"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>219</v>
       </c>
@@ -9302,7 +9886,7 @@
       <c r="O54" s="14"/>
       <c r="P54" s="15"/>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -9314,7 +9898,7 @@
       <c r="K55" s="11"/>
       <c r="L55" s="12"/>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>220</v>
       </c>
@@ -9329,7 +9913,7 @@
       <c r="K56" s="11"/>
       <c r="L56" s="12"/>
     </row>
-    <row r="57" spans="2:16">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>190</v>
       </c>
@@ -9343,7 +9927,7 @@
       <c r="K57" s="11"/>
       <c r="L57" s="12"/>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -9356,7 +9940,7 @@
       <c r="K58" s="11"/>
       <c r="L58" s="12"/>
     </row>
-    <row r="59" spans="2:16">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>210</v>
       </c>
@@ -9372,7 +9956,7 @@
       <c r="K59" s="11"/>
       <c r="L59" s="12"/>
     </row>
-    <row r="60" spans="2:16">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>191</v>
       </c>
@@ -9387,7 +9971,7 @@
       <c r="K60" s="11"/>
       <c r="L60" s="12"/>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>211</v>
       </c>
@@ -9402,7 +9986,7 @@
       <c r="K61" s="11"/>
       <c r="L61" s="12"/>
     </row>
-    <row r="62" spans="2:16">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>192</v>
       </c>
@@ -9416,7 +10000,7 @@
       <c r="K62" s="11"/>
       <c r="L62" s="12"/>
     </row>
-    <row r="63" spans="2:16">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -9434,7 +10018,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="2:16">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>193</v>
       </c>
@@ -9449,7 +10033,7 @@
       <c r="K64" s="11"/>
       <c r="L64" s="12"/>
     </row>
-    <row r="65" spans="2:12">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>194</v>
       </c>
@@ -9464,7 +10048,7 @@
       <c r="K65" s="11"/>
       <c r="L65" s="12"/>
     </row>
-    <row r="66" spans="2:12">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -9477,7 +10061,7 @@
       <c r="K66" s="11"/>
       <c r="L66" s="12"/>
     </row>
-    <row r="67" spans="2:12">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>195</v>
       </c>
@@ -9492,7 +10076,7 @@
       <c r="K67" s="11"/>
       <c r="L67" s="12"/>
     </row>
-    <row r="68" spans="2:12">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -9505,7 +10089,7 @@
       <c r="K68" s="11"/>
       <c r="L68" s="12"/>
     </row>
-    <row r="69" spans="2:12">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B69" s="16" t="s">
         <v>159</v>
       </c>
@@ -9520,7 +10104,7 @@
       <c r="K69" s="11"/>
       <c r="L69" s="12"/>
     </row>
-    <row r="70" spans="2:12">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B70" s="16"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -9533,7 +10117,7 @@
       <c r="K70" s="11"/>
       <c r="L70" s="12"/>
     </row>
-    <row r="71" spans="2:12">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -9548,7 +10132,7 @@
       <c r="K71" s="11"/>
       <c r="L71" s="12"/>
     </row>
-    <row r="72" spans="2:12">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B72" s="16" t="s">
         <v>202</v>
       </c>
@@ -9565,7 +10149,7 @@
       <c r="K72" s="11"/>
       <c r="L72" s="12"/>
     </row>
-    <row r="73" spans="2:12">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B73" s="16"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -9578,7 +10162,7 @@
       <c r="K73" s="11"/>
       <c r="L73" s="12"/>
     </row>
-    <row r="74" spans="2:12">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>222</v>
       </c>
@@ -9595,7 +10179,7 @@
       <c r="K74" s="11"/>
       <c r="L74" s="12"/>
     </row>
-    <row r="75" spans="2:12">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -9610,7 +10194,7 @@
       <c r="K75" s="11"/>
       <c r="L75" s="12"/>
     </row>
-    <row r="76" spans="2:12">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>208</v>
       </c>
@@ -9624,7 +10208,7 @@
       <c r="K76" s="11"/>
       <c r="L76" s="12"/>
     </row>
-    <row r="77" spans="2:12">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>207</v>
       </c>
@@ -9641,7 +10225,7 @@
       <c r="K77" s="11"/>
       <c r="L77" s="12"/>
     </row>
-    <row r="78" spans="2:12">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>212</v>
       </c>
@@ -9655,7 +10239,7 @@
       <c r="K78" s="11"/>
       <c r="L78" s="12"/>
     </row>
-    <row r="79" spans="2:12">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>213</v>
       </c>
@@ -9670,7 +10254,7 @@
       <c r="K79" s="11"/>
       <c r="L79" s="12"/>
     </row>
-    <row r="80" spans="2:12">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>209</v>
       </c>
@@ -9685,7 +10269,7 @@
       <c r="K80" s="11"/>
       <c r="L80" s="12"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>215</v>
       </c>
@@ -9700,7 +10284,7 @@
       <c r="K81" s="11"/>
       <c r="L81" s="12"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>214</v>
       </c>
@@ -9715,7 +10299,7 @@
       <c r="K82" s="11"/>
       <c r="L82" s="12"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B83" s="13" t="s">
         <v>216</v>
       </c>
@@ -9730,12 +10314,12 @@
       <c r="K83" s="14"/>
       <c r="L83" s="15"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>152</v>
       </c>
@@ -9752,7 +10336,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B87" s="25" t="s">
         <v>196</v>
       </c>
@@ -9761,647 +10345,647 @@
       </c>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C88" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C90" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C91" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C92" s="32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="181" spans="2:2">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="215" spans="2:2">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="221" spans="2:2">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B231" s="38" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B233" s="38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>298</v>
       </c>
@@ -10409,7 +10993,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>314</v>
       </c>
@@ -10417,7 +11001,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B240" s="38" t="s">
         <v>299</v>
       </c>
@@ -10425,7 +11009,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="241" spans="2:7">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>292</v>
       </c>
@@ -10433,7 +11017,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="243" spans="2:7">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>300</v>
       </c>
@@ -10441,7 +11025,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="244" spans="2:7">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>293</v>
       </c>
@@ -10449,7 +11033,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="246" spans="2:7">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>301</v>
       </c>
@@ -10457,7 +11041,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="247" spans="2:7">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>302</v>
       </c>
@@ -10465,7 +11049,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="248" spans="2:7">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>303</v>
       </c>
@@ -10473,7 +11057,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="249" spans="2:7">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>305</v>
       </c>
@@ -10481,7 +11065,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="250" spans="2:7">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>307</v>
       </c>
@@ -10489,7 +11073,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="251" spans="2:7">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>309</v>
       </c>
@@ -10497,22 +11081,22 @@
         <v>308</v>
       </c>
     </row>
-    <row r="252" spans="2:7">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="255" spans="2:7">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B255" s="38" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="256" spans="2:7">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B256" s="38" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B258" s="38" t="s">
         <v>297</v>
       </c>
@@ -10520,27 +11104,27 @@
         <v>312</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C264" s="25" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C265" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I266" t="s">
         <v>272</v>
       </c>
@@ -10548,7 +11132,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C267" s="3" t="s">
         <v>256</v>
       </c>
@@ -10559,7 +11143,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D268" t="s">
         <v>259</v>
       </c>
@@ -10567,7 +11151,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D269" t="s">
         <v>261</v>
       </c>
@@ -10575,7 +11159,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D270" t="s">
         <v>258</v>
       </c>
@@ -10583,32 +11167,32 @@
         <v>764500</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="273" spans="2:9">
+    <row r="273" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C273" s="25" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="274" spans="2:9">
+    <row r="274" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C274" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="276" spans="2:9">
+    <row r="276" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C276" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="277" spans="2:9">
+    <row r="277" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D277" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="278" spans="2:9">
+    <row r="278" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D278" t="s">
         <v>266</v>
       </c>
@@ -10616,77 +11200,77 @@
         <v>267</v>
       </c>
     </row>
-    <row r="281" spans="2:9">
+    <row r="281" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B281" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="282" spans="2:9">
+    <row r="282" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C282" s="25" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="283" spans="2:9">
+    <row r="283" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C283" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="284" spans="2:9">
+    <row r="284" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C284" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="285" spans="2:9">
+    <row r="285" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C285" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="286" spans="2:9">
+    <row r="286" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C286" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="288" spans="2:9">
+    <row r="288" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C288" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="289" spans="3:7">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D289" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="291" spans="3:7">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D291" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="292" spans="3:7">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E292" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="293" spans="3:7">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E293" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="294" spans="3:7">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E294" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="296" spans="3:7">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C296" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="298" spans="3:7">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D298" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="299" spans="3:7">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D299" t="s">
         <v>288</v>
       </c>
@@ -10694,7 +11278,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="300" spans="3:7">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G300" t="s">
         <v>290</v>
       </c>
